--- a/cypress/fixtures/CIF_Data.xlsx
+++ b/cypress/fixtures/CIF_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886894B3-DD68-460C-869F-641969CB0682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC7A7E1-1914-42CF-863F-26467C699AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>url</t>
   </si>
@@ -51,12 +51,18 @@
     <t>password</t>
   </si>
   <si>
+    <t>dropdown</t>
+  </si>
+  <si>
     <t>http://192.168.20.127/UltimusSSO/src/UltimusSSOAPP/UFS.Web/</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
+    <t>Banking Function</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
@@ -360,10 +366,10 @@
     <t>Medium Enterprise - Service Concern (21)</t>
   </si>
   <si>
-    <t>17/08/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
   </si>
   <si>
     <t>Sole Proprietorship</t>
@@ -788,19 +794,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,57 +817,75 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -889,15 +914,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1501</v>
@@ -905,7 +930,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>8002</v>
@@ -913,7 +938,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1515</v>
@@ -921,7 +946,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1502</v>
@@ -987,228 +1012,228 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1220,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD0866-9044-4C91-B9CD-070AE2338B25}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
@@ -1238,117 +1263,117 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3">
         <v>4566237237</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3">
         <v>5000000</v>
@@ -1360,76 +1385,76 @@
         <v>756535986</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" s="3">
         <v>876406</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M2" s="3">
         <v>100</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="3">
         <v>1010</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X2" s="3">
         <v>8801623265</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1441,9 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C944D4D-876B-44F3-8AC5-F876A4E24393}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1453,17 +1476,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
